--- a/biology/Zoologie/Carpophage_des_Chatham/Carpophage_des_Chatham.xlsx
+++ b/biology/Zoologie/Carpophage_des_Chatham/Carpophage_des_Chatham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiphaga chathamensis
 Le Carpophage des Chatham (Hemiphaga chathamensis), ou parea (du moriori), est une espèce d'oiseaux de la famille des Columbidae. Elle était et est encore parfois considérée comme une sous-espèce du Carpophage de Nouvelle-Zélande (H. novaeseelandiae).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique des îles Chatham.
 </t>
